--- a/test_formats/test.xlsx
+++ b/test_formats/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/mel_production_aws_study_2/test_formats/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/mel_production_study2/test_formats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B4A70D-9F7A-0343-A8DB-E4F19517F3D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C2F77A-C27E-7B43-9D21-EEE85B98E9A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1600" windowWidth="35840" windowHeight="19200" xr2:uid="{F918617E-B214-614F-96D8-792A3F23E788}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="84">
   <si>
     <t>page_type</t>
   </si>
@@ -305,10 +305,13 @@
     <t>play_midi_file_record_audio_page</t>
   </si>
   <si>
-    <t>&lt;h2&gt;Sing A Melody You Hear&lt;/h2&gt;&lt;p&gt;Press Play to hear a melody.&lt;/p&gt;&lt;p&gt; Try and sing back the melody plus the rhythm as best you can.&lt;/p&gt;&lt;p&gt; Just do your best on the first try then press stop. Do not worry if you think you got it wrong.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;h2&gt;Completion&lt;/h2&gt;&lt;p&gt; You have completed the Melody Singing Task. Well done!&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Sing the Melody&lt;/h2&gt;&lt;p&gt; Click below to hear the melody.&lt;/p&gt;&lt;p&gt;Try and sing back the melody once in your best shot, then click Stop.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Sing A Melody You Hear&lt;/h2&gt;&lt;p&gt;Press Play to hear a melody.&lt;/p&gt;&lt;p&gt; Try and sing back the melody plus the rhythm as best you can in one shot.&lt;/p&gt;&lt;p&gt; Just do your best on the first try then press Stop. Do not worry if you think you got it wrong.&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -699,7 +702,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF35A9C-231E-5348-9328-9A574E33D2C7}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G16" zoomScale="102" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G15" zoomScale="102" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
@@ -1187,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>49</v>
@@ -1210,7 +1213,7 @@
       </c>
       <c r="G25"/>
       <c r="H25" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I25" t="s">
         <v>32</v>
@@ -1231,7 +1234,7 @@
       </c>
       <c r="G26"/>
       <c r="H26" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I26" t="s">
         <v>18</v>

--- a/test_formats/test.xlsx
+++ b/test_formats/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebsilas/mel_production_study2/test_formats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64C2F77A-C27E-7B43-9D21-EEE85B98E9A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A5A488-8B79-C343-83BD-9CF480F161B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1600" windowWidth="35840" windowHeight="19200" xr2:uid="{F918617E-B214-614F-96D8-792A3F23E788}"/>
   </bookViews>
@@ -308,10 +308,10 @@
     <t>&lt;h2&gt;Completion&lt;/h2&gt;&lt;p&gt; You have completed the Melody Singing Task. Well done!&lt;/p&gt;</t>
   </si>
   <si>
-    <t>&lt;h2&gt;Sing the Melody&lt;/h2&gt;&lt;p&gt; Click below to hear the melody.&lt;/p&gt;&lt;p&gt;Try and sing back the melody once in your best shot, then click Stop.&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;h2&gt;Sing A Melody You Hear&lt;/h2&gt;&lt;p&gt;Press Play to hear a melody.&lt;/p&gt;&lt;p&gt; Try and sing back the melody plus the rhythm as best you can in one shot.&lt;/p&gt;&lt;p&gt; Just do your best on the first try then press Stop. Do not worry if you think you got it wrong.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;h2&gt;Sing the melody and rhythm&lt;/h2&gt;&lt;p&gt; Click below to hear the melody.&lt;/p&gt;&lt;p&gt;Try and sing back the melody once in your best shot, then click Stop.&lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -702,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF35A9C-231E-5348-9328-9A574E33D2C7}">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G15" zoomScale="102" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="G17" zoomScale="102" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>49</v>
@@ -1213,7 +1213,7 @@
       </c>
       <c r="G25"/>
       <c r="H25" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I25" t="s">
         <v>32</v>
